--- a/WebApi/ReportFile/report_speed_violation.xlsx
+++ b/WebApi/ReportFile/report_speed_violation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>STT</t>
   </si>
@@ -74,19 +74,20 @@
     <t>Thời gian</t>
   </si>
   <si>
-    <t>Thời gian vi phạm</t>
-  </si>
-  <si>
-    <t>Tổng thời gian xe chạy</t>
-  </si>
-  <si>
-    <t>Tỷ lệ</t>
+    <t>Thời gian vi phạm (hh:mm)</t>
+  </si>
+  <si>
+    <t>Tổng thời gian xe chạy
+(hh:mm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[h]:mm"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,13 +145,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -160,6 +158,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,57 +448,60 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="3" width="15.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="4" customWidth="1"/>
-    <col min="5" max="9" width="9.140625" style="5"/>
-    <col min="10" max="10" width="23.5703125" style="5" customWidth="1"/>
-    <col min="11" max="16" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="3" width="15.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="3" customWidth="1"/>
+    <col min="5" max="9" width="9.140625" style="4"/>
+    <col min="10" max="10" width="23.5703125" style="4" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="4"/>
+    <col min="14" max="14" width="12.140625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="13" style="5" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="4"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
@@ -529,7 +536,7 @@
         <v>17</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/WebApi/ReportFile/report_speed_violation.xlsx
+++ b/WebApi/ReportFile/report_speed_violation.xlsx
@@ -88,7 +88,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +99,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -141,11 +149,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -163,6 +180,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -445,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,89 +485,108 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
-    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="2" t="s">
+    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
